--- a/variations_tanzania.xlsx
+++ b/variations_tanzania.xlsx
@@ -37,211 +37,211 @@
     <t xml:space="preserve">avg</t>
   </si>
   <si>
+    <t xml:space="preserve">_lives_in_kaskaziniunguja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_lives_in_kusinipemba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_lives_in_kusiniunguja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_lives_in_mjinimagharibi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_land_surface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_number_of_ploughs_owned___policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_lives_in_kigoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_crop_sales___output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_quantity_of_fertilizers_used___policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_months_hired_workers___policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_owns_land_certificate___policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_lives_in_singida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_number_of_animals_owned___policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_household_head_is_polygamous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_lives_in_tabora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_lives_in_shinyanga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_expenditure___output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_uses_irrigation___policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_lives_in_simiyu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_household_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_lives_in_mwanza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_lives_in_geita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_quantity_of_pesticides_used___policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_number_of_hired_workers___policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_has_bank_account___policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_uses_credit___policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_lives_in_manyara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_distance_to_road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_no_food_deficiency___output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_nid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_household_head_is_male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_lives_in_mbeya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_lives_in_mara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_y4_hhid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_lives_in_dodoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_household_head_age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_household_head_is_monogamous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_rural_household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_longitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_has_hired_workers___policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_children_education___output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_literacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_has_borrowed___policy</t>
+  </si>
+  <si>
     <t xml:space="preserve">_attended_school</t>
   </si>
   <si>
-    <t xml:space="preserve">_children_education___output</t>
+    <t xml:space="preserve">_lives_in_morogoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_distance_to_market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_latitude</t>
   </si>
   <si>
     <t xml:space="preserve">_crop_diversification___policy</t>
   </si>
   <si>
-    <t xml:space="preserve">_crop_sales___output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_distance_to_market</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_distance_to_road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_expenditure___output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_has_bank_account___policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_has_borrowed___policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_has_hired_workers___policy</t>
+    <t xml:space="preserve">_productivity</t>
   </si>
   <si>
     <t xml:space="preserve">_has_medical_assistance___output</t>
   </si>
   <si>
-    <t xml:space="preserve">_household_head_age</t>
+    <t xml:space="preserve">_lives_in_tanga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_lives_in_ruvuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_lives_in_katavi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_lives_in_arusha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_household_head_is_separated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_lives_in_kaskazinipemba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_lives_in_mtwara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_lives_in_daressalaam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_lives_in_rukwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_household_head_is_widowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_lives_in_njombe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_lives_in_kagera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_lives_in_iringa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_lives_in_pwani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_lives_in_kilimanjaro</t>
   </si>
   <si>
     <t xml:space="preserve">_household_head_is_divorced</t>
   </si>
   <si>
-    <t xml:space="preserve">_household_head_is_male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_household_head_is_monogamous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_household_head_is_polygamous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_household_head_is_separated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_household_head_is_widowed</t>
-  </si>
-  <si>
     <t xml:space="preserve">_household_head_never_married</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_household_size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_land_surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_literacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_lives_in_arusha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_lives_in_daressalaam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_lives_in_dodoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_lives_in_geita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_lives_in_iringa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_lives_in_kagera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_lives_in_kaskazinipemba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_lives_in_kaskaziniunguja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_lives_in_katavi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_lives_in_kigoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_lives_in_kilimanjaro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_lives_in_kusinipemba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_lives_in_kusiniunguja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_lives_in_manyara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_lives_in_mara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_lives_in_mbeya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_lives_in_mjinimagharibi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_lives_in_morogoro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_lives_in_mtwara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_lives_in_mwanza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_lives_in_njombe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_lives_in_pwani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_lives_in_rukwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_lives_in_ruvuma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_lives_in_shinyanga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_lives_in_simiyu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_lives_in_singida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_lives_in_tabora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_lives_in_tanga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_months_hired_workers___policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_nid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_no_food_deficiency___output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_number_of_animals_owned___policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_number_of_hired_workers___policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_number_of_ploughs_owned___policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_owns_land_certificate___policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_productivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_quantity_of_fertilizers_used___policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_quantity_of_pesticides_used___policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_rural_household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_uses_credit___policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_uses_irrigation___policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_y4_hhid</t>
   </si>
 </sst>
 </file>
@@ -344,7 +344,7 @@
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="A1:E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -375,327 +375,327 @@
         <v>5</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>-5.56532903935</v>
+        <v>979.778895946</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>3.16191144016</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>-5.51794930323</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>-0.0264045563414</v>
+        <v>-100</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>238.45836512</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>-100</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.154695178293</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2.06709849161</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>-3.85302936903</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>-0.0054374523304</v>
+      <c r="E3" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-26.2689102911</v>
+        <v>13.3129046371</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>10.6749901887</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>-15.1572713571</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>-0.102503971532</v>
+        <v>-100</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>60.4887095239</v>
+        <v>-40.5105249793</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>13.9742175393</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>195.461461337</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.899747961336</v>
+        <v>-100</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>35.1895244486</v>
+        <v>-79.6726171921</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>-0.371912456694</v>
+        <v>808.529549198</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>-7.758934021</v>
+        <v>353.51976674</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0.0901955932363</v>
+        <v>3.60792232915</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>109.499153626</v>
+        <v>3.90723146268</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>-50.2007200494</v>
+        <v>112.54420789</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>16.473412567</v>
+        <v>303.032667113</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>0.25257282048</v>
+        <v>1.39828035489</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>8.33788140856</v>
+        <v>-8.62799022641</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>4.92849735662</v>
+        <v>-83.6068865797</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>65.9396419681</v>
+        <v>253.055464864</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>0.264020069111</v>
+        <v>0.53606862686</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>54.4718509323</v>
+        <v>60.4887095239</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>-22.3081683541</v>
+        <v>13.9742175393</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>36.7941620561</v>
+        <v>195.461461337</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>0.229859482114</v>
+        <v>0.899747961336</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>-5.28033902213</v>
+        <v>68.7746762299</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>45.4330572661</v>
+        <v>46.9444688695</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>-5.34236036057</v>
+        <v>176.720880368</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>0.116034526278</v>
+        <v>0.974800084892</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>46.4517973034</v>
+        <v>-22.3918381398</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>10.9536386979</v>
+        <v>30.1427556299</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>-1.99107474426</v>
+        <v>143.283243606</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>0.184714537524</v>
+        <v>0.503447203655</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-4.32491434677</v>
+        <v>62.2596662374</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>-4.48818144111</v>
+        <v>-20.0936477668</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>-20.2799621085</v>
+        <v>116.22861988</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-0.0969768596546</v>
+        <v>0.527982127835</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-4.41153389536</v>
+        <v>-65.8679541308</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>5.55264601304</v>
+        <v>216.057382351</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>2.23388727077</v>
+        <v>107.89457414</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0.0112499979615</v>
+        <v>0.860280007868</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>400.903896919</v>
+        <v>684.719924053</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>-28.6947331122</v>
+        <v>-7.48706885257</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-85.4600974578</v>
+        <v>105.576437623</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.955830221164</v>
+        <v>2.60936430941</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>-0.990352325983</v>
+        <v>2.65611703907</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>15.6925067481</v>
+        <v>27.5744229601</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>9.19721941469</v>
+        <v>93.7404716769</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.079664579456</v>
+        <v>0.413236705587</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>-18.2515484168</v>
+        <v>-28.4676195833</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>28.6994397357</v>
+        <v>92.9604091264</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1.31974238365</v>
+        <v>72.7179689651</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.0392254456751</v>
+        <v>0.457369195027</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>2.65611703907</v>
+        <v>-37.2685868302</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>27.5744229601</v>
+        <v>152.506745602</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>93.7404716769</v>
+        <v>66.0868093797</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.413236705587</v>
+        <v>0.604416560505</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>17.0764473285</v>
+        <v>8.33788140856</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>-40.0522130372</v>
+        <v>4.92849735662</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>-41.9953917919</v>
+        <v>65.9396419681</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>-0.216570525002</v>
+        <v>0.264020069111</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>-14.3922358899</v>
+        <v>49.4002968099</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>-34.1448569349</v>
+        <v>-64.536000349</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>-52.2354324711</v>
+        <v>59.8198930003</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>-0.335908417653</v>
+        <v>0.148947298204</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>257.711589773</v>
+        <v>313.230074137</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>-53.9912461452</v>
+        <v>105.118816054</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>-100</v>
+        <v>53.5085780217</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0.345734478759</v>
+        <v>1.57285822737</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>-5.1975613174</v>
@@ -712,189 +712,189 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-79.6726171921</v>
+        <v>1.23130400557</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>808.529549198</v>
+        <v>7.67324223277</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>353.51976674</v>
+        <v>47.2329883699</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>3.60792232915</v>
+        <v>0.187125115361</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>23.9828559829</v>
+        <v>-29.9379852866</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>-4.34938000152</v>
+        <v>93.1393095339</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>-8.86768022197</v>
+        <v>42.1258771863</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>0.0358859858647</v>
+        <v>0.351090671445</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>-3.86208805181</v>
+        <v>4.20995432953</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>2.3431988206</v>
+        <v>-12.003831625</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>-4.71027483538</v>
+        <v>40.74931933</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>-0.020763880222</v>
+        <v>0.109851473448</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>114.82670454</v>
+        <v>8.46911585109</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>-31.4446310153</v>
+        <v>-5.10013842464</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>-41.0641480744</v>
+        <v>36.8951311305</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>0.1410597515</v>
+        <v>0.13421369519</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>827.950424035</v>
+        <v>54.4718509323</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>-81.9419855028</v>
+        <v>-22.3081683541</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>-50.0926811802</v>
+        <v>36.7941620561</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>2.31971919117</v>
+        <v>0.229859482114</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>-76.4694414571</v>
+        <v>44.1968863374</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>1351.77634278</v>
+        <v>-1.17199322022</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>2.52467146092</v>
+        <v>31.4600757111</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>4.25943857593</v>
+        <v>0.248283229428</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>-29.9379852866</v>
+        <v>-18.977756086</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>93.1393095339</v>
+        <v>79.1055568844</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>42.1258771863</v>
+        <v>28.0426346836</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.351090671445</v>
+        <v>0.293901451607</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>48.3664209577</v>
+        <v>109.499153626</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>5.7534375404</v>
+        <v>-50.2007200494</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>-71.3499608577</v>
+        <v>16.473412567</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>-0.0574336745318</v>
+        <v>0.25257282048</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>-56.5195091781</v>
+        <v>-0.534443313999</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>-10.1434020263</v>
+        <v>7.0808682672</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>-59.648456423</v>
+        <v>12.1959843844</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>-0.421037892092</v>
+        <v>0.0624746977921</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>-34.964197197</v>
+        <v>-7.44851276506</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>-83.9120466079</v>
+        <v>4.89440242489</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>-43.0987488158</v>
+        <v>10.4055851184</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>-0.539916642069</v>
+        <v>0.026171582594</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>979.778895946</v>
+        <v>-0.990352325983</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>-100</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>36</v>
+        <v>15.6925067481</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>9.19721941469</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0.079664579456</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -902,16 +902,16 @@
         <v>37</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>244.198824257</v>
+        <v>62.6321338606</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>-63.2686737928</v>
+        <v>-1.4158279904</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>-38.2922442507</v>
+        <v>5.97324120528</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>0.475459687378</v>
+        <v>0.223965156918</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -919,16 +919,16 @@
         <v>38</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>-8.62799022641</v>
+        <v>-75.6702062577</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>-83.6068865797</v>
+        <v>259.196802646</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>253.055464864</v>
+        <v>4.62632524115</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>0.53606862686</v>
+        <v>0.62717640543</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -936,16 +936,16 @@
         <v>39</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>-4.31528704237</v>
+        <v>4.03192615042</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>-71.4822548422</v>
+        <v>-2.97597977342</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>-78.7221801196</v>
+        <v>2.66547039753</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>-0.515065740014</v>
+        <v>0.0124047225818</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -953,16 +953,16 @@
         <v>40</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>238.45836512</v>
+        <v>-76.4694414571</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>-100</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>36</v>
+        <v>1351.77634278</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>2.52467146092</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>4.25943857593</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -970,16 +970,16 @@
         <v>41</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>13.3129046371</v>
+        <v>-4.41153389536</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>-100</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>36</v>
+        <v>5.55264601304</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>2.23388727077</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0.0112499979615</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -987,16 +987,16 @@
         <v>42</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>-18.977756086</v>
+        <v>-18.2515484168</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>79.1055568844</v>
+        <v>28.6994397357</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>28.0426346836</v>
+        <v>1.31974238365</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>0.293901451607</v>
+        <v>0.0392254456751</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1004,16 +1004,16 @@
         <v>43</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>-75.6702062577</v>
+        <v>-13.9765200972</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>259.196802646</v>
+        <v>17.2389681972</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>4.62632524115</v>
+        <v>1.21788546954</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>0.62717640543</v>
+        <v>0.0149344452318</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1021,16 +1021,16 @@
         <v>44</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>62.6321338606</v>
+        <v>11.5148203654</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>-1.4158279904</v>
+        <v>-0.349635122705</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>5.97324120528</v>
+        <v>1.03687278092</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>0.223965156918</v>
+        <v>0.0406735267454</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1038,16 +1038,16 @@
         <v>45</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>-40.5105249793</v>
+        <v>2.25997524142</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>-100</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>36</v>
+        <v>-0.559415880578</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>-1.736307338</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>-0.000119159923872</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1055,16 +1055,16 @@
         <v>46</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>175.875850441</v>
+        <v>46.4517973034</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>-76.3384882637</v>
+        <v>10.9536386979</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>-5.99793256937</v>
+        <v>-1.99107474426</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>0.311798098693</v>
+        <v>0.184714537524</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1072,16 +1072,16 @@
         <v>47</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>69.0879969645</v>
+        <v>0.154695178293</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>5.14431912895</v>
+        <v>2.06709849161</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>-49.2546630264</v>
+        <v>-3.85302936903</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>0.0832588435569</v>
+        <v>-0.0054374523304</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1089,16 +1089,16 @@
         <v>48</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>1.23130400557</v>
+        <v>-3.86208805181</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>7.67324223277</v>
+        <v>2.3431988206</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>47.2329883699</v>
+        <v>-4.71027483538</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>0.187125115361</v>
+        <v>-0.020763880222</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1106,16 +1106,16 @@
         <v>49</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>86.2278095646</v>
+        <v>-5.28033902213</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>-21.9971468539</v>
+        <v>45.4330572661</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>-56.3149517058</v>
+        <v>-5.34236036057</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>0.0263857033496</v>
+        <v>0.116034526278</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1123,16 +1123,16 @@
         <v>50</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>119.883688094</v>
+        <v>-5.56532903935</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>-22.5778007979</v>
+        <v>3.16191144016</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>-72.4470626081</v>
+        <v>-5.51794930323</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>0.082862748961</v>
+        <v>-0.0264045563414</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1140,16 +1140,16 @@
         <v>51</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>32.9466811413</v>
+        <v>175.875850441</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>-35.9345345936</v>
+        <v>-76.3384882637</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>-51.2034285841</v>
+        <v>-5.99793256937</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>-0.180637606788</v>
+        <v>0.311798098693</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1157,16 +1157,16 @@
         <v>52</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>18.2866459487</v>
+        <v>35.1895244486</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>7.92253778239</v>
+        <v>-0.371912456694</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>-33.0076227044</v>
+        <v>-7.758934021</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>-0.0226614632446</v>
+        <v>0.0901955932363</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1174,16 +1174,16 @@
         <v>53</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>-37.2685868302</v>
+        <v>23.9828559829</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>152.506745602</v>
+        <v>-4.34938000152</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>66.0868093797</v>
+        <v>-8.86768022197</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>0.604416560505</v>
+        <v>0.0358859858647</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1191,16 +1191,16 @@
         <v>54</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>313.230074137</v>
+        <v>-26.2689102911</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>105.118816054</v>
+        <v>10.6749901887</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>53.5085780217</v>
+        <v>-15.1572713571</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>1.57285822737</v>
+        <v>-0.102503971532</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1208,16 +1208,16 @@
         <v>55</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>-65.8679541308</v>
+        <v>361.259133227</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>216.057382351</v>
+        <v>-87.4197465758</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>107.89457414</v>
+        <v>-15.706264363</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>0.860280007868</v>
+        <v>0.86044374096</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1225,16 +1225,16 @@
         <v>56</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>-28.4676195833</v>
+        <v>-4.32491434677</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>92.9604091264</v>
+        <v>-4.48818144111</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>72.7179689651</v>
+        <v>-20.2799621085</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>0.457369195027</v>
+        <v>-0.0969768596546</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1259,16 +1259,16 @@
         <v>58</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>2.25997524142</v>
+        <v>18.2866459487</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>-0.559415880578</v>
+        <v>7.92253778239</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>-1.736307338</v>
+        <v>-33.0076227044</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>-0.000119159923872</v>
+        <v>-0.0226614632446</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1276,16 +1276,16 @@
         <v>59</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>-22.3918381398</v>
+        <v>244.198824257</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>30.1427556299</v>
+        <v>-63.2686737928</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>143.283243606</v>
+        <v>-38.2922442507</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>0.503447203655</v>
+        <v>0.475459687378</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1293,16 +1293,16 @@
         <v>60</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>-7.44851276506</v>
+        <v>114.82670454</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>4.89440242489</v>
+        <v>-31.4446310153</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>10.4055851184</v>
+        <v>-41.0641480744</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>0.026171582594</v>
+        <v>0.1410597515</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1310,16 +1310,16 @@
         <v>61</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>-0.534443313999</v>
+        <v>17.0764473285</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>7.0808682672</v>
+        <v>-40.0522130372</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>12.1959843844</v>
+        <v>-41.9953917919</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>0.0624746977921</v>
+        <v>-0.216570525002</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1327,16 +1327,16 @@
         <v>62</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>684.719924053</v>
+        <v>-34.964197197</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>-7.48706885257</v>
+        <v>-83.9120466079</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>105.576437623</v>
+        <v>-43.0987488158</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>2.60936430941</v>
+        <v>-0.539916642069</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1344,16 +1344,16 @@
         <v>63</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>8.46911585109</v>
+        <v>69.0879969645</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>-5.10013842464</v>
+        <v>5.14431912895</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>36.8951311305</v>
+        <v>-49.2546630264</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>0.13421369519</v>
+        <v>0.0832588435569</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1361,16 +1361,16 @@
         <v>64</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>3.90723146268</v>
+        <v>827.950424035</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>112.54420789</v>
+        <v>-81.9419855028</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>303.032667113</v>
+        <v>-50.0926811802</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>1.39828035489</v>
+        <v>2.31971919117</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1378,16 +1378,16 @@
         <v>65</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>62.2596662374</v>
+        <v>32.9466811413</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>-20.0936477668</v>
+        <v>-35.9345345936</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>116.22861988</v>
+        <v>-51.2034285841</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>0.527982127835</v>
+        <v>-0.180637606788</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1395,16 +1395,16 @@
         <v>66</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>361.259133227</v>
+        <v>-14.3922358899</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>-87.4197465758</v>
+        <v>-34.1448569349</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>-15.706264363</v>
+        <v>-52.2354324711</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>0.86044374096</v>
+        <v>-0.335908417653</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1412,16 +1412,16 @@
         <v>67</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>68.7746762299</v>
+        <v>86.2278095646</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>46.9444688695</v>
+        <v>-21.9971468539</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>176.720880368</v>
+        <v>-56.3149517058</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>0.974800084892</v>
+        <v>0.0263857033496</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1429,16 +1429,16 @@
         <v>68</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>4.20995432953</v>
+        <v>-56.5195091781</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>-12.003831625</v>
+        <v>-10.1434020263</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>40.74931933</v>
+        <v>-59.648456423</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>0.109851473448</v>
+        <v>-0.421037892092</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1446,16 +1446,16 @@
         <v>69</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>-13.9765200972</v>
+        <v>48.3664209577</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>17.2389681972</v>
+        <v>5.7534375404</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>1.21788546954</v>
+        <v>-71.3499608577</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>0.0149344452318</v>
+        <v>-0.0574336745318</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1463,16 +1463,16 @@
         <v>70</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>44.1968863374</v>
+        <v>119.883688094</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>-1.17199322022</v>
+        <v>-22.5778007979</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>31.4600757111</v>
+        <v>-72.4470626081</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>0.248283229428</v>
+        <v>0.082862748961</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1480,16 +1480,16 @@
         <v>71</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>49.4002968099</v>
+        <v>-4.31528704237</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>-64.536000349</v>
+        <v>-71.4822548422</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>59.8198930003</v>
+        <v>-78.7221801196</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>0.148947298204</v>
+        <v>-0.515065740014</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1497,16 +1497,16 @@
         <v>72</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>11.5148203654</v>
+        <v>400.903896919</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>-0.349635122705</v>
+        <v>-28.6947331122</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>1.03687278092</v>
+        <v>-85.4600974578</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>0.0406735267454</v>
+        <v>0.955830221164</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1514,16 +1514,16 @@
         <v>73</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>4.03192615042</v>
+        <v>257.711589773</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>-2.97597977342</v>
+        <v>-53.9912461452</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>2.66547039753</v>
+        <v>-100</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>0.0124047225818</v>
+        <v>0.345734478759</v>
       </c>
     </row>
   </sheetData>
